--- a/biology/Botanique/Manettia/Manettia.xlsx
+++ b/biology/Botanique/Manettia/Manettia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manettia est un genre de plantes de la famille des Rubiaceae. Il est dédié au botaniste italien Saverio Manetti.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 septembre 2015) :
 Manettia acutifolia Ruiz &amp; Pav.
 Manettia alba (Aubl.) Wernham
 Manettia albert-smithii Standl.
@@ -662,7 +678,7 @@
 Manettia weberbaueri K.Krause
 Manettia wernhamiana Standl.
 Manettia zimapanica Hemsl.
-Selon World Checklist of Selected Plant Families (WCSP)  (13 septembre 2015)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (13 septembre 2015) :
 Manettia acutifolia Ruiz &amp; Pav. (1798)
 Manettia alba (Aubl.) Wernham (1919)
 Manettia albert-smithii Standl., Publ. Field Mus. Nat. Hist. (1930)
@@ -792,13 +808,13 @@
 Manettia weberbaueri K.Krause (1924)
 Manettia wernhamiana Standl., Publ. Field Mus. Nat. Hist. (1936)
 Manettia zimapanica Hemsl. (1879)
-Selon NCBI  (13 septembre 2015)[4] :
+Selon NCBI  (13 septembre 2015) :
 Manettia alba
 Manettia bicolor
 Manettia cordifolia
 Manettia luteo-rubra
 Manettia lygistum
-Selon The Plant List            (13 septembre 2015)[5] :
+Selon The Plant List            (13 septembre 2015) :
 Manettia acutifolia Ruiz &amp; Pav.
 Manettia alba (Aubl.) Wernham
 Manettia albert-smithii Standl.
@@ -922,7 +938,7 @@
 Manettia weberbaueri K.Krause
 Manettia wernhamiana Standl.
 Manettia zimapanica Hemsl.
-Selon Tropicos                                           (13 septembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 septembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Manettia acutiflora Pers.
 Manettia acutifolia Ruiz &amp; Pav.
 Manettia alba (Aubl.) Wernham
